--- a/result/PSE_Results.xlsx
+++ b/result/PSE_Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PSE_Painless" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="34">
   <si>
     <t>Instance</t>
   </si>
@@ -125,387 +125,12 @@
   <si>
     <t>X-can__715.mtx.rnd</t>
   </si>
-  <si>
-    <t>0,12</t>
-  </si>
-  <si>
-    <t>0,08</t>
-  </si>
-  <si>
-    <t>0,07</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,11</t>
-  </si>
-  <si>
-    <t>0,09</t>
-  </si>
-  <si>
-    <t>0,17</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,21</t>
-  </si>
-  <si>
-    <t>0,39</t>
-  </si>
-  <si>
-    <t>0,23</t>
-  </si>
-  <si>
-    <t>0,37</t>
-  </si>
-  <si>
-    <t>28,03</t>
-  </si>
-  <si>
-    <t>1902,9</t>
-  </si>
-  <si>
-    <t>0,24</t>
-  </si>
-  <si>
-    <t>0,18</t>
-  </si>
-  <si>
-    <t>0,19</t>
-  </si>
-  <si>
-    <t>5,84</t>
-  </si>
-  <si>
-    <t>0,33</t>
-  </si>
-  <si>
-    <t>0,22</t>
-  </si>
-  <si>
-    <t>0,35</t>
-  </si>
-  <si>
-    <t>0,62</t>
-  </si>
-  <si>
-    <t>3,05</t>
-  </si>
-  <si>
-    <t>14,17</t>
-  </si>
-  <si>
-    <t>30,33</t>
-  </si>
-  <si>
-    <t>0,16</t>
-  </si>
-  <si>
-    <t>11,41</t>
-  </si>
-  <si>
-    <t>15,31</t>
-  </si>
-  <si>
-    <t>33,49</t>
-  </si>
-  <si>
-    <t>36,51</t>
-  </si>
-  <si>
-    <t>50,98</t>
-  </si>
-  <si>
-    <t>945,75</t>
-  </si>
-  <si>
-    <t>767,75</t>
-  </si>
-  <si>
-    <t>6,95</t>
-  </si>
-  <si>
-    <t>3,47</t>
-  </si>
-  <si>
-    <t>3,42</t>
-  </si>
-  <si>
-    <t>3,3</t>
-  </si>
-  <si>
-    <t>3,45</t>
-  </si>
-  <si>
-    <t>3,66</t>
-  </si>
-  <si>
-    <t>3,51</t>
-  </si>
-  <si>
-    <t>4,9</t>
-  </si>
-  <si>
-    <t>8,38</t>
-  </si>
-  <si>
-    <t>3,49</t>
-  </si>
-  <si>
-    <t>3,43</t>
-  </si>
-  <si>
-    <t>3,61</t>
-  </si>
-  <si>
-    <t>3,79</t>
-  </si>
-  <si>
-    <t>3,82</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>3,63</t>
-  </si>
-  <si>
-    <t>3,64</t>
-  </si>
-  <si>
-    <t>6,89</t>
-  </si>
-  <si>
-    <t>3,73</t>
-  </si>
-  <si>
-    <t>3,77</t>
-  </si>
-  <si>
-    <t>3,91</t>
-  </si>
-  <si>
-    <t>12,82</t>
-  </si>
-  <si>
-    <t>12,72</t>
-  </si>
-  <si>
-    <t>26,07</t>
-  </si>
-  <si>
-    <t>93,59</t>
-  </si>
-  <si>
-    <t>1726,06</t>
-  </si>
-  <si>
-    <t>13,8</t>
-  </si>
-  <si>
-    <t>9,6</t>
-  </si>
-  <si>
-    <t>32,19</t>
-  </si>
-  <si>
-    <t>18,23</t>
-  </si>
-  <si>
-    <t>22,44</t>
-  </si>
-  <si>
-    <t>28,04</t>
-  </si>
-  <si>
-    <t>75,24</t>
-  </si>
-  <si>
-    <t>32,88</t>
-  </si>
-  <si>
-    <t>322,85</t>
-  </si>
-  <si>
-    <t>92,32</t>
-  </si>
-  <si>
-    <t>123,35</t>
-  </si>
-  <si>
-    <t>209,29</t>
-  </si>
-  <si>
-    <t>908,86</t>
-  </si>
-  <si>
-    <t>461,8</t>
-  </si>
-  <si>
-    <t>424,79</t>
-  </si>
-  <si>
-    <t>234,69</t>
-  </si>
-  <si>
-    <t>202,98</t>
-  </si>
-  <si>
-    <t>379,18</t>
-  </si>
-  <si>
-    <t>14,21</t>
-  </si>
-  <si>
-    <t>24,5</t>
-  </si>
-  <si>
-    <t>16,06</t>
-  </si>
-  <si>
-    <t>22,56</t>
-  </si>
-  <si>
-    <t>24,21</t>
-  </si>
-  <si>
-    <t>21,49</t>
-  </si>
-  <si>
-    <t>30,17</t>
-  </si>
-  <si>
-    <t>32,57</t>
-  </si>
-  <si>
-    <t>60,19</t>
-  </si>
-  <si>
-    <t>57,3</t>
-  </si>
-  <si>
-    <t>93,93</t>
-  </si>
-  <si>
-    <t>111,4</t>
-  </si>
-  <si>
-    <t>1434,83</t>
-  </si>
-  <si>
-    <t>146,09</t>
-  </si>
-  <si>
-    <t>13,97</t>
-  </si>
-  <si>
-    <t>17,48</t>
-  </si>
-  <si>
-    <t>35,05</t>
-  </si>
-  <si>
-    <t>15,81</t>
-  </si>
-  <si>
-    <t>35,45</t>
-  </si>
-  <si>
-    <t>30,86</t>
-  </si>
-  <si>
-    <t>60,85</t>
-  </si>
-  <si>
-    <t>54,46</t>
-  </si>
-  <si>
-    <t>124,72</t>
-  </si>
-  <si>
-    <t>184,95</t>
-  </si>
-  <si>
-    <t>80,59</t>
-  </si>
-  <si>
-    <t>61,29</t>
-  </si>
-  <si>
-    <t>104,58</t>
-  </si>
-  <si>
-    <t>97,49</t>
-  </si>
-  <si>
-    <t>318,41</t>
-  </si>
-  <si>
-    <t>161,75</t>
-  </si>
-  <si>
-    <t>119,67</t>
-  </si>
-  <si>
-    <t>127,35</t>
-  </si>
-  <si>
-    <t>168,76</t>
-  </si>
-  <si>
-    <t>278,76</t>
-  </si>
-  <si>
-    <t>513,15</t>
-  </si>
-  <si>
-    <t>12,93</t>
-  </si>
-  <si>
-    <t>1313,89</t>
-  </si>
-  <si>
-    <t>514,38</t>
-  </si>
-  <si>
-    <t>11,38</t>
-  </si>
-  <si>
-    <t>14,78</t>
-  </si>
-  <si>
-    <t>9,45</t>
-  </si>
-  <si>
-    <t>66,34</t>
-  </si>
-  <si>
-    <t>261,24</t>
-  </si>
-  <si>
-    <t>334,94</t>
-  </si>
-  <si>
-    <t>325,27</t>
-  </si>
-  <si>
-    <t>333,89</t>
-  </si>
-  <si>
-    <t>334,48</t>
-  </si>
-  <si>
-    <t>157,74</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,24 +150,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -604,6 +240,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1020"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -902,10 +540,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -914,7 +552,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -923,10 +561,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="5"/>
@@ -2360,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="J40" s="8">
-        <v>1801.91</v>
+        <v>1786.91</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="8"/>
@@ -3446,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="J69" s="8">
-        <v>1526.33</v>
+        <v>1442.32</v>
       </c>
       <c r="L69" s="6"/>
       <c r="M69" s="8"/>
@@ -4547,7 +4185,7 @@
         <v>19</v>
       </c>
       <c r="J96" s="8">
-        <v>1776.41</v>
+        <v>1691.31</v>
       </c>
       <c r="L96" s="6"/>
       <c r="M96" s="8"/>
@@ -5144,7 +4782,7 @@
         <v>19</v>
       </c>
       <c r="J111" s="8">
-        <v>588.28</v>
+        <v>540.79999999999995</v>
       </c>
       <c r="L111" s="6"/>
       <c r="M111" s="8"/>
@@ -5657,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="J124" s="8">
-        <v>46.56</v>
+        <v>41.490000000000009</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="8"/>
@@ -6422,7 +6060,7 @@
         <v>19</v>
       </c>
       <c r="J143" s="8">
-        <v>548.20000000000005</v>
+        <v>502.55000000000018</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="8"/>
@@ -6640,8 +6278,8 @@
       <c r="I149" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J149" s="6">
-        <v>290.83</v>
+      <c r="J149" s="8">
+        <v>283.27999999999997</v>
       </c>
       <c r="L149" s="6"/>
       <c r="M149" s="8"/>
@@ -7448,7 +7086,7 @@
         <v>19</v>
       </c>
       <c r="J169" s="8">
-        <v>226.92</v>
+        <v>222.40999999999985</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="8"/>
@@ -7676,7 +7314,7 @@
         <v>19</v>
       </c>
       <c r="J176" s="8">
-        <v>830.2</v>
+        <v>830.92</v>
       </c>
       <c r="L176" s="6"/>
       <c r="M176" s="8"/>
@@ -8450,7 +8088,7 @@
         <v>19</v>
       </c>
       <c r="J196" s="8">
-        <v>122.83</v>
+        <v>123.00000000000023</v>
       </c>
       <c r="L196" s="6"/>
       <c r="M196" s="8"/>
@@ -15888,8 +15526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -15903,10 +15541,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -15915,7 +15553,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -15924,10 +15562,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15959,8 +15597,8 @@
       <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>34</v>
+      <c r="J3" s="11">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -15991,8 +15629,8 @@
       <c r="I4" s="4">
         <v>1</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>35</v>
+      <c r="J4" s="11">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -16023,9 +15661,12 @@
       <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="J5" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -16055,8 +15696,8 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>35</v>
+      <c r="J7" s="11">
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -16087,9 +15728,12 @@
       <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="J8" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -16119,8 +15763,8 @@
       <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>36</v>
+      <c r="J10" s="11">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -16151,8 +15795,8 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>36</v>
+      <c r="J11" s="11">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -16183,8 +15827,8 @@
       <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>36</v>
+      <c r="J12" s="11">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -16215,9 +15859,12 @@
       <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="J13" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -16247,8 +15894,8 @@
       <c r="I15" s="4">
         <v>1</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>37</v>
+      <c r="J15" s="11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -16279,8 +15926,8 @@
       <c r="I16" s="4">
         <v>1</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>37</v>
+      <c r="J16" s="11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -16311,9 +15958,12 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="J17" s="11">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -16343,8 +15993,8 @@
       <c r="I19" s="4">
         <v>1</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>37</v>
+      <c r="J19" s="11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -16375,8 +16025,8 @@
       <c r="I20" s="4">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>39</v>
+      <c r="J20" s="11">
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -16407,8 +16057,8 @@
       <c r="I21" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>39</v>
+      <c r="J21" s="11">
+        <v>0.09</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -16439,9 +16089,12 @@
       <c r="I22" s="4">
         <v>0</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="J22" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
@@ -16471,8 +16124,8 @@
       <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>39</v>
+      <c r="J24" s="11">
+        <v>0.09</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -16503,8 +16156,8 @@
       <c r="I25" s="4">
         <v>1</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>37</v>
+      <c r="J25" s="11">
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -16535,9 +16188,12 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="J26" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -16567,8 +16223,8 @@
       <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>40</v>
+      <c r="J28" s="11">
+        <v>0.17</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -16599,8 +16255,8 @@
       <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>40</v>
+      <c r="J29" s="11">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -16631,9 +16287,12 @@
       <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="J30" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -16663,8 +16322,8 @@
       <c r="I32" s="4">
         <v>1</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>34</v>
+      <c r="J32" s="11">
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -16695,9 +16354,12 @@
       <c r="I33" s="4">
         <v>0</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="J33" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -16727,8 +16389,8 @@
       <c r="I35" s="4">
         <v>1</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>42</v>
+      <c r="J35" s="11">
+        <v>0.21</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -16759,8 +16421,8 @@
       <c r="I36" s="4">
         <v>1</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>43</v>
+      <c r="J36" s="11">
+        <v>0.39</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -16791,8 +16453,8 @@
       <c r="I37" s="4">
         <v>1</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>44</v>
+      <c r="J37" s="11">
+        <v>0.23</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -16823,8 +16485,8 @@
       <c r="I38" s="4">
         <v>1</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>45</v>
+      <c r="J38" s="11">
+        <v>0.37</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -16855,8 +16517,8 @@
       <c r="I39" s="4">
         <v>1</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>46</v>
+      <c r="J39" s="11">
+        <v>28.03</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -16887,9 +16549,12 @@
       <c r="I40" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="J40" s="11">
+        <v>1770.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -16919,8 +16584,8 @@
       <c r="I42" s="4">
         <v>1</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>41</v>
+      <c r="J42" s="11">
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -16951,8 +16616,8 @@
       <c r="I43" s="4">
         <v>1</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>48</v>
+      <c r="J43" s="11">
+        <v>0.24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -16983,8 +16648,8 @@
       <c r="I44" s="4">
         <v>1</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>49</v>
+      <c r="J44" s="11">
+        <v>0.18</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -17015,8 +16680,8 @@
       <c r="I45" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>49</v>
+      <c r="J45" s="11">
+        <v>0.18</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -17047,8 +16712,8 @@
       <c r="I46" s="4">
         <v>1</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>50</v>
+      <c r="J46" s="11">
+        <v>0.19</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -17079,9 +16744,12 @@
       <c r="I47" s="4">
         <v>0</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="J47" s="11">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
@@ -17111,8 +16779,8 @@
       <c r="I49" s="4">
         <v>1</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>52</v>
+      <c r="J49" s="11">
+        <v>0.33</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -17143,8 +16811,8 @@
       <c r="I50" s="4">
         <v>1</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>53</v>
+      <c r="J50" s="11">
+        <v>0.22</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -17175,8 +16843,8 @@
       <c r="I51" s="4">
         <v>1</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>49</v>
+      <c r="J51" s="11">
+        <v>0.18</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -17207,8 +16875,8 @@
       <c r="I52" s="4">
         <v>1</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>54</v>
+      <c r="J52" s="11">
+        <v>0.35</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -17239,8 +16907,8 @@
       <c r="I53" s="4">
         <v>1</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>55</v>
+      <c r="J53" s="11">
+        <v>0.62</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -17271,8 +16939,8 @@
       <c r="I54" s="4">
         <v>1</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>49</v>
+      <c r="J54" s="11">
+        <v>0.18</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -17303,8 +16971,8 @@
       <c r="I55" s="4">
         <v>1</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>56</v>
+      <c r="J55" s="11">
+        <v>3.05</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -17335,8 +17003,8 @@
       <c r="I56" s="4">
         <v>1</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>57</v>
+      <c r="J56" s="11">
+        <v>14.17</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -17367,8 +17035,8 @@
       <c r="I57" s="4">
         <v>1</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>58</v>
+      <c r="J57" s="11">
+        <v>30.33</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -17399,9 +17067,12 @@
       <c r="I58" s="4">
         <v>0</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="J58" s="11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
@@ -17431,8 +17102,8 @@
       <c r="I60" s="4">
         <v>1</v>
       </c>
-      <c r="J60" s="4" t="s">
-        <v>40</v>
+      <c r="J60" s="11">
+        <v>0.17</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -17463,9 +17134,12 @@
       <c r="I61" s="4">
         <v>0</v>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>59</v>
-      </c>
+      <c r="J61" s="11">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
@@ -17495,8 +17169,8 @@
       <c r="I63" s="4">
         <v>1</v>
       </c>
-      <c r="J63" s="4" t="s">
-        <v>60</v>
+      <c r="J63" s="11">
+        <v>11.41</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -17527,8 +17201,8 @@
       <c r="I64" s="4">
         <v>1</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>61</v>
+      <c r="J64" s="11">
+        <v>15.31</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -17559,8 +17233,8 @@
       <c r="I65" s="4">
         <v>1</v>
       </c>
-      <c r="J65" s="4" t="s">
-        <v>62</v>
+      <c r="J65" s="11">
+        <v>33.49</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -17591,8 +17265,8 @@
       <c r="I66" s="4">
         <v>1</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>63</v>
+      <c r="J66" s="11">
+        <v>36.51</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -17623,8 +17297,8 @@
       <c r="I67" s="4">
         <v>1</v>
       </c>
-      <c r="J67" s="4" t="s">
-        <v>64</v>
+      <c r="J67" s="11">
+        <v>50.98</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -17655,8 +17329,8 @@
       <c r="I68" s="4">
         <v>1</v>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>65</v>
+      <c r="J68" s="11">
+        <v>945.75</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -17687,9 +17361,12 @@
       <c r="I69" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J69" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="J69" s="11">
+        <v>706.55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
@@ -17719,8 +17396,8 @@
       <c r="I71" s="4">
         <v>1</v>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>67</v>
+      <c r="J71" s="11">
+        <v>6.95</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -17751,8 +17428,8 @@
       <c r="I72" s="4">
         <v>1</v>
       </c>
-      <c r="J72" s="4" t="s">
-        <v>68</v>
+      <c r="J72" s="11">
+        <v>3.47</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -17783,8 +17460,8 @@
       <c r="I73" s="4">
         <v>1</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>69</v>
+      <c r="J73" s="11">
+        <v>3.42</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -17815,8 +17492,8 @@
       <c r="I74" s="4">
         <v>1</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>70</v>
+      <c r="J74" s="11">
+        <v>3.3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -17847,8 +17524,8 @@
       <c r="I75" s="4">
         <v>1</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>71</v>
+      <c r="J75" s="11">
+        <v>3.45</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -17879,8 +17556,8 @@
       <c r="I76" s="4">
         <v>1</v>
       </c>
-      <c r="J76" s="4" t="s">
-        <v>72</v>
+      <c r="J76" s="11">
+        <v>3.66</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -17911,8 +17588,8 @@
       <c r="I77" s="4">
         <v>1</v>
       </c>
-      <c r="J77" s="4" t="s">
-        <v>73</v>
+      <c r="J77" s="11">
+        <v>3.51</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -17943,8 +17620,8 @@
       <c r="I78" s="4">
         <v>1</v>
       </c>
-      <c r="J78" s="4" t="s">
-        <v>74</v>
+      <c r="J78" s="11">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -17975,8 +17652,8 @@
       <c r="I79" s="4">
         <v>1</v>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>75</v>
+      <c r="J79" s="11">
+        <v>8.3800000000000008</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -18007,8 +17684,8 @@
       <c r="I80" s="4">
         <v>1</v>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>76</v>
+      <c r="J80" s="11">
+        <v>3.49</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -18039,8 +17716,8 @@
       <c r="I81" s="4">
         <v>1</v>
       </c>
-      <c r="J81" s="4" t="s">
-        <v>77</v>
+      <c r="J81" s="11">
+        <v>3.43</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -18071,8 +17748,8 @@
       <c r="I82" s="4">
         <v>1</v>
       </c>
-      <c r="J82" s="4" t="s">
-        <v>78</v>
+      <c r="J82" s="11">
+        <v>3.61</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -18103,8 +17780,8 @@
       <c r="I83" s="4">
         <v>1</v>
       </c>
-      <c r="J83" s="4" t="s">
-        <v>79</v>
+      <c r="J83" s="11">
+        <v>3.79</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -18135,8 +17812,8 @@
       <c r="I84" s="4">
         <v>1</v>
       </c>
-      <c r="J84" s="4" t="s">
-        <v>80</v>
+      <c r="J84" s="11">
+        <v>3.82</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -18167,8 +17844,8 @@
       <c r="I85" s="4">
         <v>1</v>
       </c>
-      <c r="J85" s="4" t="s">
-        <v>81</v>
+      <c r="J85" s="11">
+        <v>3.8</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -18199,8 +17876,8 @@
       <c r="I86" s="4">
         <v>1</v>
       </c>
-      <c r="J86" s="4" t="s">
-        <v>82</v>
+      <c r="J86" s="11">
+        <v>3.63</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -18231,8 +17908,8 @@
       <c r="I87" s="4">
         <v>1</v>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>83</v>
+      <c r="J87" s="11">
+        <v>3.64</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -18263,8 +17940,8 @@
       <c r="I88" s="4">
         <v>1</v>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>84</v>
+      <c r="J88" s="11">
+        <v>6.89</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -18295,8 +17972,8 @@
       <c r="I89" s="4">
         <v>1</v>
       </c>
-      <c r="J89" s="4" t="s">
-        <v>85</v>
+      <c r="J89" s="11">
+        <v>3.73</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -18327,8 +18004,8 @@
       <c r="I90" s="4">
         <v>1</v>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>86</v>
+      <c r="J90" s="11">
+        <v>3.77</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -18359,8 +18036,8 @@
       <c r="I91" s="4">
         <v>1</v>
       </c>
-      <c r="J91" s="4" t="s">
-        <v>87</v>
+      <c r="J91" s="11">
+        <v>3.91</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -18391,8 +18068,8 @@
       <c r="I92" s="4">
         <v>1</v>
       </c>
-      <c r="J92" s="4" t="s">
-        <v>88</v>
+      <c r="J92" s="11">
+        <v>12.82</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -18423,8 +18100,8 @@
       <c r="I93" s="4">
         <v>1</v>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>89</v>
+      <c r="J93" s="11">
+        <v>12.72</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -18455,8 +18132,8 @@
       <c r="I94" s="4">
         <v>1</v>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>90</v>
+      <c r="J94" s="11">
+        <v>26.07</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -18487,8 +18164,8 @@
       <c r="I95" s="4">
         <v>1</v>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>91</v>
+      <c r="J95" s="11">
+        <v>93.59</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -18519,9 +18196,12 @@
       <c r="I96" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J96" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="J96" s="11">
+        <v>1566.25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
@@ -18551,8 +18231,8 @@
       <c r="I98" s="4">
         <v>1</v>
       </c>
-      <c r="J98" s="4" t="s">
-        <v>93</v>
+      <c r="J98" s="11">
+        <v>13.8</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -18583,8 +18263,8 @@
       <c r="I99" s="4">
         <v>1</v>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>94</v>
+      <c r="J99" s="11">
+        <v>9.6</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -18615,8 +18295,8 @@
       <c r="I100" s="4">
         <v>1</v>
       </c>
-      <c r="J100" s="4" t="s">
-        <v>95</v>
+      <c r="J100" s="11">
+        <v>32.19</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -18647,8 +18327,8 @@
       <c r="I101" s="4">
         <v>1</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>96</v>
+      <c r="J101" s="11">
+        <v>18.23</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -18679,8 +18359,8 @@
       <c r="I102" s="4">
         <v>1</v>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>97</v>
+      <c r="J102" s="11">
+        <v>22.44</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -18711,8 +18391,8 @@
       <c r="I103" s="4">
         <v>1</v>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>98</v>
+      <c r="J103" s="11">
+        <v>28.04</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -18743,8 +18423,8 @@
       <c r="I104" s="4">
         <v>1</v>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>99</v>
+      <c r="J104" s="11">
+        <v>75.239999999999995</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -18775,8 +18455,8 @@
       <c r="I105" s="4">
         <v>1</v>
       </c>
-      <c r="J105" s="4" t="s">
-        <v>100</v>
+      <c r="J105" s="11">
+        <v>32.880000000000003</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -18807,8 +18487,8 @@
       <c r="I106" s="4">
         <v>1</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>101</v>
+      <c r="J106" s="11">
+        <v>322.85000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -18839,8 +18519,8 @@
       <c r="I107" s="4">
         <v>1</v>
       </c>
-      <c r="J107" s="4" t="s">
-        <v>102</v>
+      <c r="J107" s="11">
+        <v>92.32</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -18871,8 +18551,8 @@
       <c r="I108" s="4">
         <v>1</v>
       </c>
-      <c r="J108" s="4" t="s">
-        <v>103</v>
+      <c r="J108" s="11">
+        <v>123.35</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -18903,8 +18583,8 @@
       <c r="I109" s="4">
         <v>1</v>
       </c>
-      <c r="J109" s="4" t="s">
-        <v>104</v>
+      <c r="J109" s="11">
+        <v>209.29</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -18935,9 +18615,12 @@
       <c r="I110" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J110" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="J110" s="11">
+        <v>819.7700000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
@@ -18967,8 +18650,8 @@
       <c r="I112" s="4">
         <v>1</v>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>106</v>
+      <c r="J112" s="11">
+        <v>461.8</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -18999,7 +18682,7 @@
       <c r="I113" s="4">
         <v>1</v>
       </c>
-      <c r="J113" s="4">
+      <c r="J113" s="11">
         <v>135</v>
       </c>
     </row>
@@ -19031,8 +18714,8 @@
       <c r="I114" s="4">
         <v>1</v>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>107</v>
+      <c r="J114" s="11">
+        <v>424.79</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -19063,8 +18746,8 @@
       <c r="I115" s="4">
         <v>1</v>
       </c>
-      <c r="J115" s="4" t="s">
-        <v>108</v>
+      <c r="J115" s="11">
+        <v>234.69</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -19095,8 +18778,8 @@
       <c r="I116" s="4">
         <v>1</v>
       </c>
-      <c r="J116" s="4" t="s">
-        <v>109</v>
+      <c r="J116" s="11">
+        <v>202.98</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -19127,9 +18810,12 @@
       <c r="I117" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="J117" s="11">
+        <v>340.74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -19159,8 +18845,8 @@
       <c r="I119" s="4">
         <v>1</v>
       </c>
-      <c r="J119" s="4" t="s">
-        <v>111</v>
+      <c r="J119" s="11">
+        <v>14.21</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -19191,8 +18877,8 @@
       <c r="I120" s="4">
         <v>1</v>
       </c>
-      <c r="J120" s="4" t="s">
-        <v>112</v>
+      <c r="J120" s="11">
+        <v>24.5</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -19223,8 +18909,8 @@
       <c r="I121" s="4">
         <v>1</v>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>113</v>
+      <c r="J121" s="11">
+        <v>16.059999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -19255,8 +18941,8 @@
       <c r="I122" s="4">
         <v>1</v>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>114</v>
+      <c r="J122" s="11">
+        <v>22.56</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -19287,8 +18973,8 @@
       <c r="I123" s="4">
         <v>1</v>
       </c>
-      <c r="J123" s="4" t="s">
-        <v>115</v>
+      <c r="J123" s="11">
+        <v>24.21</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -19319,8 +19005,8 @@
       <c r="I124" s="4">
         <v>1</v>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>116</v>
+      <c r="J124" s="11">
+        <v>21.49</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -19351,8 +19037,8 @@
       <c r="I125" s="4">
         <v>1</v>
       </c>
-      <c r="J125" s="4" t="s">
-        <v>117</v>
+      <c r="J125" s="11">
+        <v>30.17</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -19383,8 +19069,8 @@
       <c r="I126" s="4">
         <v>1</v>
       </c>
-      <c r="J126" s="4" t="s">
-        <v>118</v>
+      <c r="J126" s="11">
+        <v>32.57</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -19415,8 +19101,8 @@
       <c r="I127" s="4">
         <v>1</v>
       </c>
-      <c r="J127" s="4" t="s">
-        <v>119</v>
+      <c r="J127" s="11">
+        <v>60.19</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -19447,8 +19133,8 @@
       <c r="I128" s="4">
         <v>1</v>
       </c>
-      <c r="J128" s="4" t="s">
-        <v>120</v>
+      <c r="J128" s="11">
+        <v>57.3</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -19479,8 +19165,8 @@
       <c r="I129" s="4">
         <v>1</v>
       </c>
-      <c r="J129" s="4" t="s">
-        <v>121</v>
+      <c r="J129" s="11">
+        <v>93.93</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -19511,8 +19197,8 @@
       <c r="I130" s="4">
         <v>1</v>
       </c>
-      <c r="J130" s="4" t="s">
-        <v>122</v>
+      <c r="J130" s="11">
+        <v>111.4</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -19543,9 +19229,12 @@
       <c r="I131" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="J131" s="11">
+        <v>1291.4099999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
@@ -19575,7 +19264,7 @@
       <c r="I133" s="4">
         <v>1</v>
       </c>
-      <c r="J133" s="4">
+      <c r="J133" s="11">
         <v>1668</v>
       </c>
     </row>
@@ -19607,9 +19296,12 @@
       <c r="I134" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="J134" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
@@ -19639,8 +19331,8 @@
       <c r="I136" s="4">
         <v>1</v>
       </c>
-      <c r="J136" s="4" t="s">
-        <v>125</v>
+      <c r="J136" s="11">
+        <v>13.97</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -19671,8 +19363,8 @@
       <c r="I137" s="4">
         <v>1</v>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>126</v>
+      <c r="J137" s="11">
+        <v>17.48</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -19703,8 +19395,8 @@
       <c r="I138" s="4">
         <v>1</v>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>127</v>
+      <c r="J138" s="11">
+        <v>35.049999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -19735,8 +19427,8 @@
       <c r="I139" s="4">
         <v>1</v>
       </c>
-      <c r="J139" s="4" t="s">
-        <v>128</v>
+      <c r="J139" s="11">
+        <v>15.81</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -19767,8 +19459,8 @@
       <c r="I140" s="4">
         <v>1</v>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>129</v>
+      <c r="J140" s="11">
+        <v>35.450000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -19799,8 +19491,8 @@
       <c r="I141" s="4">
         <v>1</v>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>130</v>
+      <c r="J141" s="11">
+        <v>30.86</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -19831,8 +19523,8 @@
       <c r="I142" s="4">
         <v>1</v>
       </c>
-      <c r="J142" s="4" t="s">
-        <v>131</v>
+      <c r="J142" s="11">
+        <v>60.85</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -19863,8 +19555,8 @@
       <c r="I143" s="4">
         <v>1</v>
       </c>
-      <c r="J143" s="4" t="s">
-        <v>132</v>
+      <c r="J143" s="11">
+        <v>54.46</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -19895,8 +19587,8 @@
       <c r="I144" s="4">
         <v>1</v>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>133</v>
+      <c r="J144" s="11">
+        <v>124.72</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -19927,8 +19619,8 @@
       <c r="I145" s="4">
         <v>1</v>
       </c>
-      <c r="J145" s="4" t="s">
-        <v>134</v>
+      <c r="J145" s="11">
+        <v>184.95</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -19959,8 +19651,8 @@
       <c r="I146" s="4">
         <v>1</v>
       </c>
-      <c r="J146" s="4" t="s">
-        <v>135</v>
+      <c r="J146" s="11">
+        <v>80.59</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -19991,8 +19683,8 @@
       <c r="I147" s="4">
         <v>1</v>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>136</v>
+      <c r="J147" s="11">
+        <v>61.29</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -20023,8 +19715,8 @@
       <c r="I148" s="4">
         <v>1</v>
       </c>
-      <c r="J148" s="4" t="s">
-        <v>137</v>
+      <c r="J148" s="11">
+        <v>104.58</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -20055,8 +19747,8 @@
       <c r="I149" s="4">
         <v>1</v>
       </c>
-      <c r="J149" s="4" t="s">
-        <v>138</v>
+      <c r="J149" s="11">
+        <v>97.49</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -20087,8 +19779,8 @@
       <c r="I150" s="4">
         <v>1</v>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>139</v>
+      <c r="J150" s="11">
+        <v>318.41000000000003</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -20119,8 +19811,8 @@
       <c r="I151" s="4">
         <v>1</v>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>140</v>
+      <c r="J151" s="11">
+        <v>161.75</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -20151,8 +19843,8 @@
       <c r="I152" s="4">
         <v>1</v>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>141</v>
+      <c r="J152" s="11">
+        <v>119.67</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -20183,8 +19875,8 @@
       <c r="I153" s="4">
         <v>1</v>
       </c>
-      <c r="J153" s="4" t="s">
-        <v>142</v>
+      <c r="J153" s="11">
+        <v>127.35</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
@@ -20215,9 +19907,12 @@
       <c r="I154" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J154" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="J154" s="11">
+        <v>155.26999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
@@ -20247,8 +19942,8 @@
       <c r="I156" s="4">
         <v>1</v>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>144</v>
+      <c r="J156" s="11">
+        <v>278.76</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -20279,8 +19974,8 @@
       <c r="I157" s="4">
         <v>1</v>
       </c>
-      <c r="J157" s="4" t="s">
-        <v>145</v>
+      <c r="J157" s="11">
+        <v>513.15</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -20311,9 +20006,12 @@
       <c r="I158" s="4">
         <v>0</v>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>146</v>
-      </c>
+      <c r="J158" s="11">
+        <v>12.93</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
@@ -20343,8 +20041,8 @@
       <c r="I160" s="4">
         <v>1</v>
       </c>
-      <c r="J160" s="4" t="s">
-        <v>147</v>
+      <c r="J160" s="11">
+        <v>1313.89</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -20375,9 +20073,12 @@
       <c r="I161" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J161" s="4" t="s">
-        <v>148</v>
-      </c>
+      <c r="J161" s="11">
+        <v>486.1099999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
@@ -20407,8 +20108,8 @@
       <c r="I163" s="4">
         <v>1</v>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>149</v>
+      <c r="J163" s="11">
+        <v>11.38</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -20439,8 +20140,8 @@
       <c r="I164" s="4">
         <v>1</v>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>150</v>
+      <c r="J164" s="11">
+        <v>14.78</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -20471,9 +20172,12 @@
       <c r="I165" s="4">
         <v>0</v>
       </c>
-      <c r="J165" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="J165" s="11">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
@@ -20503,8 +20207,8 @@
       <c r="I167" s="4">
         <v>1</v>
       </c>
-      <c r="J167" s="4" t="s">
-        <v>152</v>
+      <c r="J167" s="12">
+        <v>66.34</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -20535,8 +20239,8 @@
       <c r="I168" s="4">
         <v>1</v>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>153</v>
+      <c r="J168" s="11">
+        <v>261.24</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -20567,8 +20271,8 @@
       <c r="I169" s="4">
         <v>1</v>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>154</v>
+      <c r="J169" s="11">
+        <v>334.94</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -20599,8 +20303,8 @@
       <c r="I170" s="4">
         <v>1</v>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>155</v>
+      <c r="J170" s="11">
+        <v>325.27</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -20631,8 +20335,8 @@
       <c r="I171" s="4">
         <v>1</v>
       </c>
-      <c r="J171" s="4" t="s">
-        <v>156</v>
+      <c r="J171" s="11">
+        <v>333.89</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -20663,8 +20367,8 @@
       <c r="I172" s="4">
         <v>1</v>
       </c>
-      <c r="J172" s="4" t="s">
-        <v>157</v>
+      <c r="J172" s="11">
+        <v>334.48</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -20695,8 +20399,8 @@
       <c r="I173" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J173" s="4" t="s">
-        <v>158</v>
+      <c r="J173" s="11">
+        <v>143.84000000000015</v>
       </c>
     </row>
   </sheetData>
@@ -20708,8 +20412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1017"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -33902,7 +33606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R38" sqref="Q38:R38"/>
     </sheetView>
   </sheetViews>
